--- a/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
+++ b/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Pracedyplomowe796/Shared Documents/General/2025_2026/Alicja Ossera/H2-model-V6_final/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{B73FBBA9-0166-4768-B733-DD1ED8C26C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D235DDE1-58CC-4B1A-8B3C-9B1213E5AFC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77372F75-41FE-442D-B950-F3383AE8C81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3398,7 +3398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="101" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3448,42 +3448,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="100" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="47" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3496,14 +3464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="100" fillId="44" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="100" fillId="45" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3513,9 +3476,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="100" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="100" fillId="46" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -3527,6 +3490,36 @@
     <xf numFmtId="0" fontId="15" fillId="45" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1261">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4817,33 +4810,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ELC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>NEW_GAS_CCGT</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>NEW_ELEC_H2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="USER SETS"/>
     </sheetNames>
     <sheetDataSet>
@@ -4864,8 +4830,31 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ELC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>NEW_GAS_CCGT</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>NEW_ELEC_H2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5158,7 +5147,7 @@
   <dimension ref="B1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5188,7 +5177,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="15.5">
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="22" t="s">
         <v>19</v>
       </c>
       <c r="P1" t="s">
@@ -5211,7 +5200,7 @@
       </c>
     </row>
     <row r="2" spans="2:25" ht="15.5">
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="P2" t="s">
@@ -5302,606 +5291,606 @@
       <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="Y4"/>
     </row>
     <row r="5" spans="2:25" ht="37.5">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Y5"/>
     </row>
     <row r="6" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="27">
         <v>2030</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="28">
         <v>10.9</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="27">
         <v>2030</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="28">
         <v>10.4</v>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="29" t="str">
         <f>F6</f>
         <v>ELE_NEW_WIND_OFF</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="58" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P6" s="43" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="44">
         <v>2030</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="44">
         <v>1</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="44">
         <v>19</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="45" t="s">
         <v>107</v>
       </c>
       <c r="Y6"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="3">
         <v>2040</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="18">
         <v>21.8</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="3">
         <v>2040</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="18">
         <v>10.9</v>
       </c>
-      <c r="M7" s="45" t="str">
+      <c r="M7" s="31" t="str">
         <f t="shared" ref="M7:M8" si="0">F7</f>
         <v>ELE_NEW_WIND_OFF</v>
       </c>
-      <c r="O7" s="61" t="s">
+      <c r="O7" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="31" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P7" s="21" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7">
         <v>2040</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7">
         <v>40</v>
       </c>
-      <c r="U7" s="62" t="s">
+      <c r="U7" s="47" t="s">
         <v>107</v>
       </c>
       <c r="Y7"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="3">
         <v>2050</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="18">
         <v>35</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="3">
         <v>2050</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="18">
         <v>10.9</v>
       </c>
-      <c r="M8" s="45" t="str">
+      <c r="M8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ELE_NEW_WIND_OFF</v>
       </c>
-      <c r="O8" s="61" t="s">
+      <c r="O8" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="31" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P8" s="21" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8">
         <v>2050</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8">
         <v>62</v>
       </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="47" t="s">
         <v>107</v>
       </c>
       <c r="Y8"/>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="4">
         <v>2030</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="4">
         <v>2030</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49" t="str">
+      <c r="L9" s="33"/>
+      <c r="M9" s="34" t="str">
         <f>F9</f>
         <v>ELE_NEW_HYDRO</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="55" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P9" s="40" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="41">
         <v>2030</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="41">
         <v>1</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="41">
         <v>10.805999999999999</v>
       </c>
-      <c r="U9" s="64" t="s">
+      <c r="U9" s="49" t="s">
         <v>106</v>
       </c>
       <c r="Y9"/>
     </row>
     <row r="10" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="4">
         <v>2040</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="33">
         <v>1</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="4">
         <v>2040</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49" t="str">
+      <c r="L10" s="33"/>
+      <c r="M10" s="34" t="str">
         <f t="shared" ref="M10:M11" si="1">F10</f>
         <v>ELE_NEW_HYDRO</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="55" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P10" s="40" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="41">
         <v>2040</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="56">
+      <c r="S10" s="41">
         <v>1</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="41">
         <v>10.805999999999999</v>
       </c>
-      <c r="U10" s="64" t="s">
+      <c r="U10" s="49" t="s">
         <v>106</v>
       </c>
       <c r="Y10"/>
     </row>
     <row r="11" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="4">
         <v>2050</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="4">
         <v>2050</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49" t="str">
+      <c r="L11" s="33"/>
+      <c r="M11" s="34" t="str">
         <f t="shared" si="1"/>
         <v>ELE_NEW_HYDRO</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="55" t="str">
-        <f>'[2]USER SETS'!$E$14</f>
+      <c r="P11" s="40" t="str">
+        <f>'[1]USER SETS'!$E$14</f>
         <v>WIND_ON</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="41">
         <v>2050</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="56">
+      <c r="S11" s="41">
         <v>1</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="41">
         <v>10.805999999999999</v>
       </c>
-      <c r="U11" s="64" t="s">
+      <c r="U11" s="49" t="s">
         <v>106</v>
       </c>
       <c r="Y11"/>
     </row>
     <row r="12" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="3">
         <v>2030</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="3">
         <v>2030</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="18">
         <v>0</v>
       </c>
-      <c r="M12" s="45" t="str">
+      <c r="M12" s="31" t="str">
         <f>F12</f>
         <v>ELE_NEW_NUC</v>
       </c>
-      <c r="O12" s="61" t="s">
+      <c r="O12" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="33" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P12" s="5" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12">
         <v>2030</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12">
         <v>1</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12">
         <v>33</v>
       </c>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="47" t="s">
         <v>108</v>
       </c>
       <c r="Y12"/>
     </row>
     <row r="13" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="3">
         <v>2040</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="18">
         <v>8.6300000000000008</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="31" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="3">
         <v>2040</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="18">
         <v>4.4400000000000004</v>
       </c>
-      <c r="M13" s="45" t="str">
+      <c r="M13" s="31" t="str">
         <f t="shared" ref="M13:M14" si="2">F13</f>
         <v>ELE_NEW_NUC</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="O13" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="33" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P13" s="5" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13">
         <v>2040</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13">
         <v>65</v>
       </c>
-      <c r="U13" s="62" t="s">
+      <c r="U13" s="47" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="36">
         <v>2050</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="37">
         <v>15</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="36">
         <v>2050</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="37">
         <v>6.66</v>
       </c>
-      <c r="M14" s="53" t="str">
+      <c r="M14" s="38" t="str">
         <f t="shared" si="2"/>
         <v>ELE_NEW_NUC</v>
       </c>
-      <c r="O14" s="61" t="s">
+      <c r="O14" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="33" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P14" s="5" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14">
         <v>2050</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="T14" s="32">
+      <c r="T14">
         <v>96</v>
       </c>
-      <c r="U14" s="62" t="s">
+      <c r="U14" s="47" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="18.75" customHeight="1">
-      <c r="O15" s="63" t="s">
+      <c r="O15" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="56" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P15" s="41" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="41">
         <v>2030</v>
       </c>
-      <c r="R15" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="56">
+      <c r="R15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="41">
         <v>1</v>
       </c>
-      <c r="T15" s="56">
+      <c r="T15" s="41">
         <v>13.885</v>
       </c>
-      <c r="U15" s="64" t="s">
+      <c r="U15" s="49" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5909,26 +5898,26 @@
       <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="56" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P16" s="41" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="41">
         <v>2040</v>
       </c>
-      <c r="R16" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="56">
+      <c r="R16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="41">
         <v>1</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="41">
         <v>15.897</v>
       </c>
-      <c r="U16" s="64" t="s">
+      <c r="U16" s="49" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5936,26 +5925,26 @@
       <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="66" t="str">
-        <f>'[2]USER SETS'!$E$15</f>
+      <c r="P17" s="51" t="str">
+        <f>'[1]USER SETS'!$E$15</f>
         <v>PV</v>
       </c>
-      <c r="Q17" s="66">
+      <c r="Q17" s="51">
         <v>2050</v>
       </c>
-      <c r="R17" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="66">
+      <c r="R17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="51">
         <v>1</v>
       </c>
-      <c r="T17" s="66">
+      <c r="T17" s="51">
         <v>20</v>
       </c>
-      <c r="U17" s="67" t="s">
+      <c r="U17" s="52" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5969,33 +5958,33 @@
     <row r="25" spans="2:27" ht="18.75" customHeight="1"/>
     <row r="26" spans="2:27" ht="18.75" customHeight="1"/>
     <row r="27" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
     </row>
     <row r="28" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
     </row>
     <row r="29" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
     </row>
     <row r="30" spans="2:27" ht="18.75" customHeight="1"/>
     <row r="31" spans="2:27" ht="18.75" customHeight="1">
@@ -6012,7 +6001,7 @@
         <v>5.6</v>
       </c>
       <c r="T31" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
       <c r="W31" s="3" t="s">
@@ -6028,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="AA31" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
     </row>
@@ -6047,7 +6036,7 @@
         <v>7.3</v>
       </c>
       <c r="T32" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
       <c r="W32" s="3" t="s">
@@ -6061,7 +6050,7 @@
       </c>
       <c r="Z32" s="18"/>
       <c r="AA32" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
     </row>
@@ -6079,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="T33" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
       <c r="W33" s="3" t="s">
@@ -6093,7 +6082,7 @@
       </c>
       <c r="Z33" s="18"/>
       <c r="AA33" s="5" t="str">
-        <f>[1]ELC!$B$15</f>
+        <f>[2]ELC!$B$15</f>
         <v>NEW_ELEC_H2</v>
       </c>
     </row>
@@ -6156,10 +6145,10 @@
       <c r="B1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="54" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -6174,7 +6163,7 @@
       <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="54" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6183,21 +6172,21 @@
         <v>43</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="29"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="24.5" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
@@ -6210,192 +6199,192 @@
       <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:9" ht="13" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="60">
         <v>1050</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="32.5" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="60">
         <v>1500</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="32.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="60">
         <v>1200</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="12"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" ht="13" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
@@ -6404,939 +6393,939 @@
       <c r="B15" s="14">
         <v>500</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="60">
         <v>440</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="60" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="24.5" thickBot="1">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="60">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="60">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" ht="13" thickBot="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="60">
         <v>812</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:9" ht="13" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="60">
         <v>896</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="12"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" ht="13" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" ht="16">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="60">
         <v>1204</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="1:9" ht="13" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" ht="16">
       <c r="A40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="60">
         <v>1204</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
     </row>
     <row r="43" spans="1:9" ht="13" thickBot="1">
       <c r="A43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="60">
         <v>990</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
       <c r="A47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="60">
         <v>975</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
     </row>
     <row r="50" spans="1:9" ht="32.5" thickBot="1">
       <c r="A50" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="60">
         <v>210</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9" ht="32.5" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" ht="16">
       <c r="A54" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="60">
         <v>966</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" ht="16">
       <c r="A56" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9" ht="13" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="60">
         <v>1560</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
       <c r="A60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="60">
         <v>900</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
     </row>
     <row r="63" spans="1:9" ht="32.5" thickBot="1">
       <c r="A63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="60">
         <v>1185</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
     </row>
     <row r="66" spans="1:9" ht="32.5" thickBot="1">
       <c r="A66" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="60">
         <v>555</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
     </row>
     <row r="69" spans="1:9" ht="32.5" thickBot="1">
       <c r="A69" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="71" spans="1:9">
       <c r="B71">
@@ -7346,16 +7335,134 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7374,140 +7481,42 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -7750,41 +7759,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1E48E7A-B339-479F-994E-0D1A712F1055}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7807,9 +7785,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1E48E7A-B339-479F-994E-0D1A712F1055}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
+++ b/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77372F75-41FE-442D-B950-F3383AE8C81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA192A49-4936-4F0F-90E1-CE579F5B7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="CAP_BND" sheetId="2" r:id="rId1"/>
     <sheet name="a" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,11 +37,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>~UC_Sets: T_E:</t>
+  </si>
   <si>
     <t>~TFM_INS</t>
   </si>
   <si>
+    <t>~UC_T</t>
+  </si>
+  <si>
     <t>LimType</t>
   </si>
   <si>
@@ -61,6 +66,15 @@
     <t>Pset_PN</t>
   </si>
   <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>UC_CAP</t>
+  </si>
+  <si>
+    <t>UC_Desc</t>
+  </si>
+  <si>
     <t>\I: Bound Type</t>
   </si>
   <si>
@@ -73,292 +87,61 @@
     <t>Process Set: Process Name</t>
   </si>
   <si>
+    <t>\I: Nazwa UC</t>
+  </si>
+  <si>
+    <t>Nazwa procesu</t>
+  </si>
+  <si>
+    <t>Rok</t>
+  </si>
+  <si>
+    <t>Rodzaj ograniczenia</t>
+  </si>
+  <si>
+    <t>Współczynnik dla VAR_CAP</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Opis UC</t>
+  </si>
+  <si>
     <t>UP</t>
   </si>
   <si>
     <t>CAP_BND</t>
   </si>
   <si>
+    <t>ELE_NEW_WIND_OFF</t>
+  </si>
+  <si>
     <t>LO</t>
   </si>
   <si>
-    <t>ELE_NEW_WIND_OFF</t>
-  </si>
-  <si>
-    <t>Z trajektorii inputowych ENTSO: UP to trajectory HIGH, LO to trajectory LOW</t>
-  </si>
-  <si>
-    <t>windoff, WINDON, pv, NUC</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> values for total wind onshore</t>
+    </r>
   </si>
   <si>
     <t>ELE_NEW_HYDRO</t>
-  </si>
-  <si>
-    <t>ELE_NEW_NUC</t>
-  </si>
-  <si>
-    <t>elektrolizery: (2030) UP z wodorowej mapy polski, LO z PSW, (2040) UP jako srednia z wodorowej mapy polski, (2050) z wodorowej mapy polski - LO brak więcej danych z PSW</t>
-  </si>
-  <si>
-    <t>~UC_Sets: R_S: PL</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>~UC_Sets: T_E:</t>
-  </si>
-  <si>
-    <t>~UC_T</t>
-  </si>
-  <si>
-    <t>UC_N</t>
-  </si>
-  <si>
-    <t>UC_CAP</t>
-  </si>
-  <si>
-    <t>UC_RHSTS</t>
-  </si>
-  <si>
-    <t>UC_Desc</t>
-  </si>
-  <si>
-    <t>\I: Nazwa UC</t>
-  </si>
-  <si>
-    <t>Nazwa procesu</t>
-  </si>
-  <si>
-    <t>Rok</t>
-  </si>
-  <si>
-    <t>Rodzaj ograniczenia</t>
-  </si>
-  <si>
-    <t>Współczynnik dla VAR_CAP</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>Opis UC</t>
-  </si>
-  <si>
-    <t>Nazwa projektu</t>
-  </si>
-  <si>
-    <t>Pozwolenie na wznoszenie i wykorzystywanie sztucznych wysp (PSZW)</t>
-  </si>
-  <si>
-    <t>Decyzja o środowiskowych uwarunkowaniach (DŚU)</t>
-  </si>
-  <si>
-    <t>Badania geotechniczne gruntu</t>
-  </si>
-  <si>
-    <t>Warunki techniczne przyłączenia do sieci (WTP)</t>
-  </si>
-  <si>
-    <t>Umowa o przyłączenie do sieci (UP)</t>
-  </si>
-  <si>
-    <t>Decyzja Prezesa URE, o której mowa w art. 16 ust. 1 ustawy offshore*</t>
-  </si>
-  <si>
-    <t>Decyzja Prezesa URE w art. 18 ust. 1 ustawy offshore*</t>
-  </si>
-  <si>
-    <t>Planowane pierwsze wyprowadzenie energii</t>
-  </si>
-  <si>
-    <t>i spółka realizująca projekt</t>
-  </si>
-  <si>
-    <t>maksymalna moc zainstalowana</t>
-  </si>
-  <si>
-    <t>moc zainstalowana</t>
-  </si>
-  <si>
-    <t>cena maksymalna</t>
-  </si>
-  <si>
-    <t>I faza systemu wsparcia</t>
-  </si>
-  <si>
-    <t>Baltica 3</t>
-  </si>
-  <si>
-    <t>Tak</t>
-  </si>
-  <si>
-    <t>Nie</t>
-  </si>
-  <si>
-    <t>1045,5 MW</t>
-  </si>
-  <si>
-    <t>319,60 zł / MWh</t>
-  </si>
-  <si>
-    <t>2030 r.</t>
-  </si>
-  <si>
-    <t>Elektrownia Wiatrowa Baltica 3 sp. z o.o.</t>
-  </si>
-  <si>
-    <t>Baltica 2</t>
-  </si>
-  <si>
-    <t>1498 MW</t>
-  </si>
-  <si>
-    <t>2027 r.</t>
-  </si>
-  <si>
-    <t>Elektrownia Wiatrowa Baltica 2 sp. z o.o.</t>
-  </si>
-  <si>
-    <t>Baltic Power</t>
-  </si>
-  <si>
-    <t>1200 MW</t>
-  </si>
-  <si>
-    <t>1197 MW</t>
-  </si>
-  <si>
-    <t>2026 r.</t>
-  </si>
-  <si>
-    <t>sp. z o.o.</t>
-  </si>
-  <si>
-    <t>BC-Wind</t>
-  </si>
-  <si>
-    <t>399 MW</t>
-  </si>
-  <si>
-    <t>369,5 MW</t>
-  </si>
-  <si>
-    <t>Niezakończone ze względu na zmianę przepisów od 01.01.2024 r.</t>
-  </si>
-  <si>
-    <t>C-Wind Polska sp. z o.o.</t>
-  </si>
-  <si>
-    <t>FEW Baltic II</t>
-  </si>
-  <si>
-    <t>350 MW</t>
-  </si>
-  <si>
-    <t>ok. 2030 r.</t>
-  </si>
-  <si>
-    <t>Baltic Trade and Invest sp. z o.o.</t>
-  </si>
-  <si>
-    <t>MFW Bałtyk II   </t>
-  </si>
-  <si>
-    <t>720 MW</t>
-  </si>
-  <si>
-    <t>MFW Bałtyk II sp. z o.o.</t>
-  </si>
-  <si>
-    <t>MFW Bałtyk III</t>
-  </si>
-  <si>
-    <t>MFW Bałtyk III sp. z o.o.</t>
-  </si>
-  <si>
-    <t>II faza systemu wsparcia</t>
-  </si>
-  <si>
-    <t>Energa MFW 1</t>
-  </si>
-  <si>
-    <t>Nie dotyczy</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>Energa MFW 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energa MFW 2 </t>
-  </si>
-  <si>
-    <t>Orlen Neptun 14.E.3</t>
-  </si>
-  <si>
-    <t>Orlen Neptun III</t>
-  </si>
-  <si>
-    <t>Orlen Neptun 14.E.4</t>
-  </si>
-  <si>
-    <t>Orlen Neptun IV</t>
-  </si>
-  <si>
-    <t>Baltica 7</t>
-  </si>
-  <si>
-    <t>PGE Baltica 4</t>
-  </si>
-  <si>
-    <t>Baltica 9</t>
-  </si>
-  <si>
-    <t>Elektrownia Wiatrowa Baltica 9 sp. z o.o.</t>
-  </si>
-  <si>
-    <t>Baltica 2+</t>
-  </si>
-  <si>
-    <t>Orlen Neptun 46.E.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlen Neptun VIII </t>
-  </si>
-  <si>
-    <t>MFW Bałtyk I</t>
-  </si>
-  <si>
-    <t>1560 MW</t>
-  </si>
-  <si>
-    <t>MFW Bałtyk I S.A</t>
-  </si>
-  <si>
-    <t>Baltica 1</t>
-  </si>
-  <si>
-    <t>896 MW</t>
-  </si>
-  <si>
-    <t>Elektrownia Wiatrowa Baltica 1 sp. z o.o.</t>
-  </si>
-  <si>
-    <t>Baltica 1+</t>
-  </si>
-  <si>
-    <t>Baltica 5</t>
-  </si>
-  <si>
-    <t>Elektrownia Wiatrowa Baltica 5 sp. z o.o.</t>
-  </si>
-  <si>
-    <t>UC_VAR_CAP_WIND</t>
-  </si>
-  <si>
-    <t>UC_VAR_CAP_PV</t>
   </si>
   <si>
     <r>
@@ -382,25 +165,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> values for total wind onshore</t>
-    </r>
+    <t>ELE_NEW_NUC</t>
   </si>
   <si>
     <r>
@@ -443,6 +208,249 @@
       </rPr>
       <t xml:space="preserve"> values for total PV</t>
     </r>
+  </si>
+  <si>
+    <t>Z trajektorii inputowych ENTSO: UP to trajectory HIGH, LO to trajectory LOW</t>
+  </si>
+  <si>
+    <t>windoff, WINDON, pv, NUC</t>
+  </si>
+  <si>
+    <t>elektrolizery: (2030) UP z wodorowej mapy polski, LO z PSW, (2040) UP jako srednia z wodorowej mapy polski, (2050) z wodorowej mapy polski - LO brak więcej danych z PSW</t>
+  </si>
+  <si>
+    <t>Nazwa projektu</t>
+  </si>
+  <si>
+    <t>Pozwolenie na wznoszenie i wykorzystywanie sztucznych wysp (PSZW)</t>
+  </si>
+  <si>
+    <t>Decyzja o środowiskowych uwarunkowaniach (DŚU)</t>
+  </si>
+  <si>
+    <t>Badania geotechniczne gruntu</t>
+  </si>
+  <si>
+    <t>Warunki techniczne przyłączenia do sieci (WTP)</t>
+  </si>
+  <si>
+    <t>Umowa o przyłączenie do sieci (UP)</t>
+  </si>
+  <si>
+    <t>Decyzja Prezesa URE, o której mowa w art. 16 ust. 1 ustawy offshore*</t>
+  </si>
+  <si>
+    <t>Decyzja Prezesa URE w art. 18 ust. 1 ustawy offshore*</t>
+  </si>
+  <si>
+    <t>Planowane pierwsze wyprowadzenie energii</t>
+  </si>
+  <si>
+    <t>i spółka realizująca projekt</t>
+  </si>
+  <si>
+    <t>maksymalna moc zainstalowana</t>
+  </si>
+  <si>
+    <t>moc zainstalowana</t>
+  </si>
+  <si>
+    <t>cena maksymalna</t>
+  </si>
+  <si>
+    <t>I faza systemu wsparcia</t>
+  </si>
+  <si>
+    <t>Baltica 3</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>1045,5 MW</t>
+  </si>
+  <si>
+    <t>319,60 zł / MWh</t>
+  </si>
+  <si>
+    <t>2030 r.</t>
+  </si>
+  <si>
+    <t>Elektrownia Wiatrowa Baltica 3 sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Baltica 2</t>
+  </si>
+  <si>
+    <t>1498 MW</t>
+  </si>
+  <si>
+    <t>2027 r.</t>
+  </si>
+  <si>
+    <t>Elektrownia Wiatrowa Baltica 2 sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Baltic Power</t>
+  </si>
+  <si>
+    <t>1200 MW</t>
+  </si>
+  <si>
+    <t>1197 MW</t>
+  </si>
+  <si>
+    <t>2026 r.</t>
+  </si>
+  <si>
+    <t>sp. z o.o.</t>
+  </si>
+  <si>
+    <t>BC-Wind</t>
+  </si>
+  <si>
+    <t>399 MW</t>
+  </si>
+  <si>
+    <t>369,5 MW</t>
+  </si>
+  <si>
+    <t>Niezakończone ze względu na zmianę przepisów od 01.01.2024 r.</t>
+  </si>
+  <si>
+    <t>C-Wind Polska sp. z o.o.</t>
+  </si>
+  <si>
+    <t>FEW Baltic II</t>
+  </si>
+  <si>
+    <t>350 MW</t>
+  </si>
+  <si>
+    <t>ok. 2030 r.</t>
+  </si>
+  <si>
+    <t>Baltic Trade and Invest sp. z o.o.</t>
+  </si>
+  <si>
+    <t>MFW Bałtyk II   </t>
+  </si>
+  <si>
+    <t>720 MW</t>
+  </si>
+  <si>
+    <t>MFW Bałtyk II sp. z o.o.</t>
+  </si>
+  <si>
+    <t>MFW Bałtyk III</t>
+  </si>
+  <si>
+    <t>MFW Bałtyk III sp. z o.o.</t>
+  </si>
+  <si>
+    <t>II faza systemu wsparcia</t>
+  </si>
+  <si>
+    <t>Energa MFW 1</t>
+  </si>
+  <si>
+    <t>Nie dotyczy</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>Energa MFW 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energa MFW 2 </t>
+  </si>
+  <si>
+    <t>Orlen Neptun 14.E.3</t>
+  </si>
+  <si>
+    <t>Orlen Neptun III</t>
+  </si>
+  <si>
+    <t>Orlen Neptun 14.E.4</t>
+  </si>
+  <si>
+    <t>Orlen Neptun IV</t>
+  </si>
+  <si>
+    <t>Baltica 7</t>
+  </si>
+  <si>
+    <t>PGE Baltica 4</t>
+  </si>
+  <si>
+    <t>Baltica 9</t>
+  </si>
+  <si>
+    <t>Elektrownia Wiatrowa Baltica 9 sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Baltica 2+</t>
+  </si>
+  <si>
+    <t>Orlen Neptun 46.E.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlen Neptun VIII </t>
+  </si>
+  <si>
+    <t>MFW Bałtyk I</t>
+  </si>
+  <si>
+    <t>1560 MW</t>
+  </si>
+  <si>
+    <t>MFW Bałtyk I S.A</t>
+  </si>
+  <si>
+    <t>Baltica 1</t>
+  </si>
+  <si>
+    <t>896 MW</t>
+  </si>
+  <si>
+    <t>Elektrownia Wiatrowa Baltica 1 sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Baltica 1+</t>
+  </si>
+  <si>
+    <t>Baltica 5</t>
+  </si>
+  <si>
+    <t>Elektrownia Wiatrowa Baltica 5 sp. z o.o.</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND_ON,ELE_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV, ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>NCAP_BND</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: PL</t>
+  </si>
+  <si>
+    <t>NEW_ELEC_H2</t>
+  </si>
+  <si>
+    <t>UC_VAR_CAP_WIND</t>
+  </si>
+  <si>
+    <t>UC_VAR_CAP_PV</t>
   </si>
 </sst>
 </file>
@@ -471,7 +479,7 @@
     <numFmt numFmtId="181" formatCode="yyyy"/>
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="107">
+  <fonts count="127">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1172,8 +1180,174 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1436,12 +1610,159 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1867,8 +2188,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1261">
+  <cellStyleXfs count="1303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3397,8 +3810,128 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="50" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="51" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="51" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="52" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="101" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3448,7 +3981,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="47" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3477,7 +4009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="100" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="100" fillId="46" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3485,14 +4016,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1261" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3502,26 +4052,8 @@
     <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1261">
+  <cellStyles count="1303">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3530,16 +4062,22 @@
     <cellStyle name="20 % - Akzent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="20% - Accent1 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="1278" xr:uid="{37DDB15E-1FE4-4C5F-8CB9-9DBBF69B486E}"/>
     <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% - Accent2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="1282" xr:uid="{CD80058C-02E9-4C61-A063-429CE5E6FE3D}"/>
     <cellStyle name="20% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - Accent3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="1286" xr:uid="{B106D959-CA7D-4340-AF2A-5737AD36EAFA}"/>
     <cellStyle name="20% - Accent4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="20% - Accent4 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="1290" xr:uid="{39EF3B8B-9361-4E19-8A95-383D4467E2E8}"/>
     <cellStyle name="20% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% - Accent5 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="1294" xr:uid="{33F8D73C-00D9-482F-AD11-42471D64E736}"/>
     <cellStyle name="20% - Accent6 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% - Accent6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="1298" xr:uid="{0CF2EBCB-DE8C-4CAF-8616-A7D4A1FE67FE}"/>
     <cellStyle name="20% - akcent 1" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="20% - akcent 1 10" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="20% - akcent 1 10 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -3652,16 +4190,22 @@
     <cellStyle name="40 % - Akzent6 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
     <cellStyle name="40% - Accent1 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
     <cellStyle name="40% - Accent1 3" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="1279" xr:uid="{FD84CB48-86D8-4A49-8E5E-E6C41FAABA63}"/>
     <cellStyle name="40% - Accent2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="40% - Accent2 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="1283" xr:uid="{03C9A672-E179-4DB3-AFE3-38F3EB5A0010}"/>
     <cellStyle name="40% - Accent3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="40% - Accent3 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="1287" xr:uid="{F1042D31-8A5E-4C6C-98BB-292D00B46DCD}"/>
     <cellStyle name="40% - Accent4 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="40% - Accent4 3" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="1291" xr:uid="{12F444D8-FFB9-4BD6-A553-A03A32F0514A}"/>
     <cellStyle name="40% - Accent5 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="40% - Accent5 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="1295" xr:uid="{509B728D-B454-47A7-A667-0381A7A9E93D}"/>
     <cellStyle name="40% - Accent6 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="40% - Accent6 3" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="1299" xr:uid="{0B8B3B60-9957-46FA-BB9B-1A12943FAFB9}"/>
     <cellStyle name="40% - akcent 1" xfId="141" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
     <cellStyle name="40% - akcent 1 10" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="40% - akcent 1 10 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
@@ -3774,16 +4318,22 @@
     <cellStyle name="60 % - Akzent6 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
     <cellStyle name="60% - Accent1 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="60% - Accent1 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="1280" xr:uid="{DDEA213F-395C-43A3-A58B-C80F432F80E8}"/>
     <cellStyle name="60% - Accent2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
     <cellStyle name="60% - Accent2 3" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="1284" xr:uid="{4CCD7736-9D1B-475E-A560-3D36FDC7517C}"/>
     <cellStyle name="60% - Accent3 2" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="60% - Accent3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="1288" xr:uid="{308A02E4-4FC8-4D67-A139-711E5345C5BE}"/>
     <cellStyle name="60% - Accent4 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
     <cellStyle name="60% - Accent4 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="1292" xr:uid="{A64F43C2-F863-4B6A-862A-26900FD0BE98}"/>
     <cellStyle name="60% - Accent5 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="60% - Accent5 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="1296" xr:uid="{1FC2D7CD-9BE0-40BC-829D-820FA6BDF0C0}"/>
     <cellStyle name="60% - Accent6 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
     <cellStyle name="60% - Accent6 3" xfId="262" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="1300" xr:uid="{F46F2E9A-7D8A-435A-8EF8-7CE080231202}"/>
     <cellStyle name="60% - akcent 1" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="60% - akcent 1 10" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="60% - akcent 1 10 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
@@ -3891,14 +4441,19 @@
     <cellStyle name="Accent1 3" xfId="367" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
     <cellStyle name="Accent2 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
     <cellStyle name="Accent2 3" xfId="369" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Accent2 4" xfId="1281" xr:uid="{069B8298-AF13-473B-940B-6BE98D4FEAA9}"/>
     <cellStyle name="Accent3 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
     <cellStyle name="Accent3 3" xfId="371" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Accent3 4" xfId="1285" xr:uid="{B1B22A22-2669-4F91-952D-740038FDDDFF}"/>
     <cellStyle name="Accent4 2" xfId="372" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
     <cellStyle name="Accent4 3" xfId="373" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Accent4 4" xfId="1289" xr:uid="{A2AB7208-4DC7-439B-9BA7-5B98C4B99328}"/>
     <cellStyle name="Accent5 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
     <cellStyle name="Accent5 3" xfId="375" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Accent5 4" xfId="1293" xr:uid="{00ED2189-DD00-437E-87D7-D273DA4CB572}"/>
     <cellStyle name="Accent6 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
     <cellStyle name="Accent6 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Accent6 4" xfId="1297" xr:uid="{CBFBA578-8EFD-4936-8F95-2DADE4ABB0C8}"/>
     <cellStyle name="Actual Date" xfId="378" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
     <cellStyle name="Akcent 1 10" xfId="379" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
     <cellStyle name="Akcent 1 10 2" xfId="380" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
@@ -3999,11 +4554,14 @@
     <cellStyle name="Ausgabe 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
     <cellStyle name="Bad 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
     <cellStyle name="Bad 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Bad 4" xfId="1268" xr:uid="{F47B0875-498D-4A52-B662-2E659BD50CB3}"/>
     <cellStyle name="Berechnung 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Calculation 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
     <cellStyle name="Calculation 3" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Calculation 4" xfId="1272" xr:uid="{A7B57CBE-850C-45CD-A4BF-36A89AF4CFAE}"/>
     <cellStyle name="Check Cell 2" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
     <cellStyle name="Check Cell 3" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Check Cell 4" xfId="1274" xr:uid="{7CFAC47E-EF22-4E58-A43A-46A78A02A635}"/>
     <cellStyle name="ColLevel_" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
     <cellStyle name="Comma0" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
     <cellStyle name="Comma0 - Style1" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
@@ -4084,10 +4642,12 @@
     <cellStyle name="Euro_Sheet4" xfId="560" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
     <cellStyle name="Explanatory Text 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
     <cellStyle name="Explanatory Text 3" xfId="562" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="1276" xr:uid="{CCB04F03-84B9-4105-814B-1C1212597267}"/>
     <cellStyle name="Fixed" xfId="563" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
     <cellStyle name="Fixed1 - Style1" xfId="564" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
     <cellStyle name="Good 2" xfId="565" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
     <cellStyle name="Good 3" xfId="566" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Good 4" xfId="1267" xr:uid="{D1F357AA-AE8A-4196-A1F2-2106BD85CA3C}"/>
     <cellStyle name="Grey" xfId="567" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
     <cellStyle name="Gut 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
     <cellStyle name="HEADER" xfId="569" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
@@ -4104,6 +4664,7 @@
     <cellStyle name="Heading 1 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
     <cellStyle name="Heading 1 2 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
     <cellStyle name="Heading 1 20" xfId="582" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Heading 1 21" xfId="1263" xr:uid="{D2DD7F7D-6D98-4E54-B8E3-3014E0E4F4F1}"/>
     <cellStyle name="Heading 1 3" xfId="583" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
     <cellStyle name="Heading 1 4" xfId="584" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
     <cellStyle name="Heading 1 5" xfId="585" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
@@ -4124,6 +4685,7 @@
     <cellStyle name="Heading 2 2" xfId="600" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
     <cellStyle name="Heading 2 2 2" xfId="601" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
     <cellStyle name="Heading 2 20" xfId="602" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Heading 2 21" xfId="1264" xr:uid="{8D517740-99F9-4A24-A4F1-91AA7A202A8E}"/>
     <cellStyle name="Heading 2 3" xfId="603" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
     <cellStyle name="Heading 2 4" xfId="604" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
     <cellStyle name="Heading 2 5" xfId="605" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
@@ -4133,8 +4695,10 @@
     <cellStyle name="Heading 2 9" xfId="609" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
     <cellStyle name="Heading 3 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
     <cellStyle name="Heading 3 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Heading 3 4" xfId="1265" xr:uid="{847DBD17-F203-4424-9EEF-D2106BC0B69E}"/>
     <cellStyle name="Heading 4 2" xfId="612" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
     <cellStyle name="Heading 4 3" xfId="613" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Heading 4 4" xfId="1266" xr:uid="{D1F45300-D9A0-4522-91CD-8CAA5EC4151B}"/>
     <cellStyle name="Heading1" xfId="614" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
     <cellStyle name="Heading2" xfId="615" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
     <cellStyle name="Headline" xfId="616" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
@@ -4143,6 +4707,7 @@
     <cellStyle name="Hiperłącze 2 2" xfId="619" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
     <cellStyle name="Hiperłącze 2 3" xfId="620" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
     <cellStyle name="Hyperlink 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="1302" xr:uid="{95DF6309-C548-4A3D-8B6A-A28F00ED248A}"/>
     <cellStyle name="Hyperlink 3" xfId="622" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
     <cellStyle name="Hyperlink 3 2" xfId="623" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
     <cellStyle name="Hyperlink 3 3" xfId="624" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
@@ -4186,6 +4751,7 @@
     <cellStyle name="Input 42" xfId="662" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
     <cellStyle name="Input 43" xfId="663" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
     <cellStyle name="Input 44" xfId="664" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Input 45" xfId="1270" xr:uid="{2694BE56-3E3D-42EC-BA13-B90AC0FB18D2}"/>
     <cellStyle name="Input 5" xfId="665" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
     <cellStyle name="Input 6" xfId="666" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
     <cellStyle name="Input 7" xfId="667" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
@@ -4230,6 +4796,7 @@
     <cellStyle name="Komórka zaznaczona 9 3" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
     <cellStyle name="Linked Cell 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
     <cellStyle name="Linked Cell 3" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Linked Cell 4" xfId="1273" xr:uid="{ACDD87A4-5EC3-49CB-90ED-51B3A6CC2229}"/>
     <cellStyle name="Nagłówek 1 10" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
     <cellStyle name="Nagłówek 1 10 2" xfId="710" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
     <cellStyle name="Nagłówek 1 10 3" xfId="711" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
@@ -4292,6 +4859,7 @@
     <cellStyle name="Nagłówek 4 9 3" xfId="768" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
     <cellStyle name="Neutral 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
     <cellStyle name="Neutral 3" xfId="770" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Neutral 4" xfId="1269" xr:uid="{FE3B925E-1D37-4195-B925-9A2503C350DD}"/>
     <cellStyle name="Neutralne" xfId="771" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
     <cellStyle name="Neutralne 10" xfId="772" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
     <cellStyle name="Neutralne 10 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
@@ -4321,6 +4889,7 @@
     <cellStyle name="Normal 3 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal 3 3" xfId="798" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
     <cellStyle name="Normal 3 4" xfId="799" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 3 5" xfId="1301" xr:uid="{72DA03C2-CF62-4667-961C-2D71A659A94D}"/>
     <cellStyle name="Normal 4" xfId="800" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Normal 4 2" xfId="801" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
     <cellStyle name="Normal 5" xfId="802" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
@@ -4329,6 +4898,7 @@
     <cellStyle name="Normal 6 2" xfId="805" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
     <cellStyle name="Normal 7" xfId="806" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
     <cellStyle name="Normal 7 2" xfId="807" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 8" xfId="1261" xr:uid="{796F6926-E97D-446F-99F0-430E6114C31B}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="808" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="809" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
@@ -4480,6 +5050,7 @@
     <cellStyle name="Obliczenia 9 3" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
     <cellStyle name="Output 2" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
     <cellStyle name="Output 3" xfId="957" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Output 4" xfId="1271" xr:uid="{763DFB2F-362C-485D-B19A-E02B8A68A8F4}"/>
     <cellStyle name="Percent [2]" xfId="958" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
     <cellStyle name="Procentowy 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
     <cellStyle name="Procentowy 2 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
@@ -4698,6 +5269,7 @@
     <cellStyle name="Tekst ostrzeżenia_D_HEAT" xfId="1173" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
     <cellStyle name="Title 2" xfId="1174" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
     <cellStyle name="Title 3" xfId="1175" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Title 4" xfId="1262" xr:uid="{A48FE49D-43B1-4E7B-8EFB-76F288DAEBEC}"/>
     <cellStyle name="Total 10" xfId="1176" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
     <cellStyle name="Total 11" xfId="1177" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
     <cellStyle name="Total 12" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
@@ -4711,6 +5283,7 @@
     <cellStyle name="Total 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
     <cellStyle name="Total 2 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
     <cellStyle name="Total 20" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Total 21" xfId="1277" xr:uid="{7939510B-2A8A-480B-86F5-6F590A852043}"/>
     <cellStyle name="Total 3" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="Total 4" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
     <cellStyle name="Total 5" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
@@ -4762,6 +5335,7 @@
     <cellStyle name="Warnender Text 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
     <cellStyle name="Warning Text 2" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
     <cellStyle name="Warning Text 3" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Warning Text 4" xfId="1275" xr:uid="{136A39C6-D688-4D91-8EE9-721D4D0DBDAE}"/>
     <cellStyle name="X10_Figs 21 dec" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
     <cellStyle name="Zelle überprüfen 2" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
     <cellStyle name="Złe" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
@@ -4801,60 +5375,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="USER SETS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>WIND_ON</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ELC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>NEW_GAS_CCGT</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>NEW_ELEC_H2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5146,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D9493-8910-4400-8868-45B910E390AB}">
   <dimension ref="B1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5157,317 +5677,315 @@
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7265625" customWidth="1"/>
     <col min="12" max="12" width="11.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.54296875" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7265625" customWidth="1"/>
     <col min="19" max="19" width="12.453125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" customWidth="1"/>
-    <col min="21" max="21" width="20.08984375" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" customWidth="1"/>
     <col min="22" max="24" width="11.26953125" customWidth="1"/>
     <col min="25" max="25" width="11.26953125" style="19" customWidth="1"/>
     <col min="26" max="26" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="15.5">
-      <c r="O1" s="22" t="s">
-        <v>19</v>
+      <c r="O1" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="15.5">
-      <c r="O2" s="22" t="s">
-        <v>21</v>
+      <c r="O2" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
       <c r="F3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="17"/>
       <c r="M3" s="2"/>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y3"/>
     </row>
     <row r="4" spans="2:25" ht="13.5" thickBot="1">
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="2:25" ht="25">
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="2:25" ht="18.75" customHeight="1">
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2030</v>
+      </c>
+      <c r="E6" s="27">
+        <v>10.4</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f t="shared" ref="F6:F14" si="0">M6</f>
+        <v>ELE_NEW_WIND_OFF</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2030</v>
+      </c>
+      <c r="L6" s="27">
+        <v>20</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>2030</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="42">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="23" t="s">
+      <c r="T6" s="42">
+        <v>30</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="2:25" ht="18.75" customHeight="1">
+      <c r="B7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="2:25" ht="37.5">
-      <c r="B5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="27">
-        <v>2030</v>
-      </c>
-      <c r="E6" s="28">
-        <v>10.9</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="27">
-        <v>2030</v>
-      </c>
-      <c r="L6" s="28">
-        <v>10.4</v>
-      </c>
-      <c r="M6" s="29" t="str">
-        <f>F6</f>
-        <v>ELE_NEW_WIND_OFF</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="43" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="Q6" s="44">
-        <v>2030</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="44">
-        <v>1</v>
-      </c>
-      <c r="T6" s="44">
-        <v>19</v>
-      </c>
-      <c r="U6" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+      <c r="C7" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D7" s="3">
         <v>2040</v>
       </c>
       <c r="E7" s="18">
-        <v>21.8</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>12</v>
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_WIND_OFF</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3">
         <v>2040</v>
       </c>
       <c r="L7" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="M7" s="31" t="str">
-        <f t="shared" ref="M7:M8" si="0">F7</f>
-        <v>ELE_NEW_WIND_OFF</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" s="21" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
+        <v>21.8</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2040</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -5475,55 +5993,54 @@
       <c r="T7">
         <v>40</v>
       </c>
-      <c r="U7" s="47" t="s">
-        <v>107</v>
+      <c r="U7" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="Y7"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D8" s="3">
         <v>2050</v>
       </c>
       <c r="E8" s="18">
-        <v>35</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>12</v>
+        <v>10.9</v>
+      </c>
+      <c r="F8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_WIND_OFF</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3">
         <v>2050</v>
       </c>
       <c r="L8" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="M8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>ELE_NEW_WIND_OFF</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="21" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
+        <v>35</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2050</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -5531,277 +6048,272 @@
       <c r="T8">
         <v>62</v>
       </c>
-      <c r="U8" s="47" t="s">
-        <v>107</v>
+      <c r="U8" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="Y8"/>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
+      <c r="B9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="4">
         <v>2030</v>
       </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>12</v>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_HYDRO</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4">
         <v>2030</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34" t="str">
-        <f>F9</f>
-        <v>ELE_NEW_HYDRO</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="40" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="Q9" s="41">
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="39">
         <v>2030</v>
       </c>
-      <c r="R9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="41">
+      <c r="R9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="39">
         <v>1</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="39">
         <v>10.805999999999999</v>
       </c>
-      <c r="U9" s="49" t="s">
-        <v>106</v>
+      <c r="U9" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="Y9"/>
     </row>
     <row r="10" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
+      <c r="B10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D10" s="4">
         <v>2040</v>
       </c>
-      <c r="E10" s="33">
-        <v>1</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>12</v>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_HYDRO</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4">
         <v>2040</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34" t="str">
-        <f t="shared" ref="M10:M11" si="1">F10</f>
-        <v>ELE_NEW_HYDRO</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="40" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="Q10" s="41">
+      <c r="L10" s="32">
+        <v>1</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="39">
         <v>2040</v>
       </c>
-      <c r="R10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="41">
+      <c r="R10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="39">
         <v>1</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="39">
         <v>10.805999999999999</v>
       </c>
-      <c r="U10" s="49" t="s">
-        <v>106</v>
+      <c r="U10" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="Y10"/>
     </row>
     <row r="11" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="4">
         <v>2050</v>
       </c>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>12</v>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_HYDRO</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K11" s="4">
         <v>2050</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>ELE_NEW_HYDRO</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="40" t="str">
-        <f>'[1]USER SETS'!$E$14</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="Q11" s="41">
+      <c r="L11" s="32">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="39">
         <v>2050</v>
       </c>
-      <c r="R11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="41">
+      <c r="R11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="39">
         <v>1</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="39">
         <v>10.805999999999999</v>
       </c>
-      <c r="U11" s="49" t="s">
-        <v>106</v>
+      <c r="U11" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="Y11"/>
     </row>
     <row r="12" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
+      <c r="B12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="3">
         <v>2030</v>
       </c>
       <c r="E12" s="18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_NUC</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="30" t="s">
-        <v>12</v>
+      <c r="I12" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3">
         <v>2030</v>
       </c>
       <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31" t="str">
-        <f>F12</f>
-        <v>ELE_NEW_NUC</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2030</v>
       </c>
       <c r="R12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>33</v>
-      </c>
-      <c r="U12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="2:25" ht="18.75" customHeight="1">
+      <c r="B13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>2040</v>
       </c>
       <c r="E13" s="18">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>17</v>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_NUC</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="30" t="s">
-        <v>12</v>
+      <c r="I13" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3">
         <v>2040</v>
       </c>
       <c r="L13" s="18">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M13" s="31" t="str">
-        <f t="shared" ref="M13:M14" si="2">F13</f>
-        <v>ELE_NEW_NUC</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>2040</v>
       </c>
       <c r="R13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -5809,56 +6321,55 @@
       <c r="T13">
         <v>65</v>
       </c>
-      <c r="U13" s="47" t="s">
+      <c r="U13" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="18.75" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B14" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>2050</v>
       </c>
-      <c r="E14" s="37">
-        <v>15</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>17</v>
+      <c r="E14" s="36">
+        <v>6.66</v>
+      </c>
+      <c r="F14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_NUC</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="I14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="35">
         <v>2050</v>
       </c>
-      <c r="L14" s="37">
-        <v>6.66</v>
-      </c>
-      <c r="M14" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>ELE_NEW_NUC</v>
-      </c>
-      <c r="O14" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
+      <c r="L14" s="36">
+        <v>15</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>2050</v>
       </c>
       <c r="R14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -5866,133 +6377,146 @@
       <c r="T14">
         <v>96</v>
       </c>
-      <c r="U14" s="47" t="s">
-        <v>108</v>
+      <c r="U14" s="45" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="18.75" customHeight="1">
-      <c r="O15" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="41" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
-      </c>
-      <c r="Q15" s="41">
+      <c r="O15" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="39">
         <v>2030</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="41">
+        <v>26</v>
+      </c>
+      <c r="S15" s="39">
         <v>1</v>
       </c>
-      <c r="T15" s="41">
+      <c r="T15" s="39">
         <v>13.885</v>
       </c>
-      <c r="U15" s="49" t="s">
-        <v>109</v>
+      <c r="U15" s="46" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="41" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
-      </c>
-      <c r="Q16" s="41">
+      <c r="I16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="39">
         <v>2040</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="41">
+        <v>26</v>
+      </c>
+      <c r="S16" s="39">
         <v>1</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="39">
         <v>15.897</v>
       </c>
-      <c r="U16" s="49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="18.75" customHeight="1">
-      <c r="B17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P17" s="51" t="str">
-        <f>'[1]USER SETS'!$E$15</f>
-        <v>PV</v>
-      </c>
-      <c r="Q17" s="51">
+      <c r="U16" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="9:27" ht="18.75" customHeight="1">
+      <c r="I17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="47">
         <v>2050</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="51">
+        <v>26</v>
+      </c>
+      <c r="S17" s="47">
         <v>1</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="47">
         <v>20</v>
       </c>
-      <c r="U17" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="19" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="20" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="21" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="22" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="23" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="24" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="25" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="26" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="27" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P27" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-    </row>
-    <row r="28" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-    </row>
-    <row r="29" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-    </row>
-    <row r="30" spans="2:27" ht="18.75" customHeight="1"/>
-    <row r="31" spans="2:27" ht="18.75" customHeight="1">
+      <c r="U17" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="19" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="20" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="21" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="22" spans="9:27" ht="18.75" customHeight="1">
+      <c r="J22">
+        <v>10.15</v>
+      </c>
+      <c r="K22">
+        <f>J22+E6</f>
+        <v>20.55</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="9:27" ht="18.75" customHeight="1">
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="9:27" ht="18.75" customHeight="1">
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="9:27" ht="18.75" customHeight="1" thickBot="1">
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="27" spans="9:27" ht="18.75" customHeight="1">
+      <c r="P27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+    </row>
+    <row r="28" spans="9:27" ht="18.75" customHeight="1">
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+    </row>
+    <row r="29" spans="9:27" ht="18.75" customHeight="1">
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+    </row>
+    <row r="30" spans="9:27" ht="18.75" customHeight="1"/>
+    <row r="31" spans="9:27" ht="18.75" customHeight="1">
       <c r="P31" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R31" s="4">
         <v>2030</v>
@@ -6000,15 +6524,14 @@
       <c r="S31" s="18">
         <v>5.6</v>
       </c>
-      <c r="T31" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
+      <c r="T31" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y31" s="4">
         <v>2030</v>
@@ -6016,17 +6539,16 @@
       <c r="Z31" s="18">
         <v>2</v>
       </c>
-      <c r="AA31" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" ht="18.75" customHeight="1">
+      <c r="AA31" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="9:27" ht="18.75" customHeight="1">
       <c r="P32" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R32" s="4">
         <v>2040</v>
@@ -6035,31 +6557,29 @@
         <f>AVERAGE(S31,S33)</f>
         <v>7.3</v>
       </c>
-      <c r="T32" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
+      <c r="T32" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y32" s="4">
         <v>2040</v>
       </c>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
+      <c r="AA32" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="16:27" ht="18.75" customHeight="1">
       <c r="P33" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R33" s="4">
         <v>2050</v>
@@ -6067,23 +6587,21 @@
       <c r="S33" s="18">
         <v>9</v>
       </c>
-      <c r="T33" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
+      <c r="T33" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y33" s="4">
         <v>2050</v>
       </c>
       <c r="Z33" s="18"/>
-      <c r="AA33" s="5" t="str">
-        <f>[2]ELC!$B$15</f>
-        <v>NEW_ELEC_H2</v>
+      <c r="AA33" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="16:27" ht="18.75" customHeight="1"/>
@@ -6123,6 +6641,7 @@
   <mergeCells count="1">
     <mergeCell ref="P27:V29"/>
   </mergeCells>
+  <phoneticPr fontId="107" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6140,1192 +6659,1192 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="54" t="s">
         <v>37</v>
       </c>
+      <c r="C1" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E1" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="24.5" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+        <v>46</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="56"/>
+        <v>48</v>
+      </c>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="13" thickBot="1">
-      <c r="A4" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="A4" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="60">
+        <v>50</v>
+      </c>
+      <c r="B5" s="51">
         <v>1050</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="60" t="s">
+      <c r="C5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="60" t="s">
+      <c r="D5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="E5" s="51" t="s">
         <v>53</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" ht="32.5" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="60">
+        <v>57</v>
+      </c>
+      <c r="B8" s="51">
         <v>1500</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="60" t="s">
+      <c r="C8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="60" t="s">
-        <v>57</v>
+      <c r="E8" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" ht="32.5" thickBot="1">
       <c r="A10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+        <v>60</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="60">
+        <v>61</v>
+      </c>
+      <c r="B11" s="51">
         <v>1200</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="60" t="s">
+      <c r="C11" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>62</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="12"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+        <v>61</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" ht="13" thickBot="1">
       <c r="A14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="14">
         <v>500</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="60" t="s">
+      <c r="C15" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>57</v>
+      <c r="F15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="51">
+        <v>440</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="60">
-        <v>440</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>71</v>
+      <c r="I18" s="51" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+        <v>74</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="60">
+        <v>75</v>
+      </c>
+      <c r="B21" s="51">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>57</v>
+      <c r="C21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+        <v>77</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="60">
+        <v>78</v>
+      </c>
+      <c r="B24" s="51">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>57</v>
+      <c r="C24" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="13" thickBot="1">
-      <c r="A27" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="A27" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="60">
+        <v>81</v>
+      </c>
+      <c r="B28" s="51">
         <v>812</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>81</v>
+      <c r="C28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+        <v>81</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" ht="13" thickBot="1">
       <c r="A31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="51">
+        <v>896</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="60">
-        <v>896</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>81</v>
+      <c r="H32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="12"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+        <v>85</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" ht="13" thickBot="1">
       <c r="A35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" ht="16">
       <c r="A36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="60">
+        <v>86</v>
+      </c>
+      <c r="B36" s="51">
         <v>1204</v>
       </c>
-      <c r="C36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>81</v>
+      <c r="C36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+        <v>87</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
     </row>
     <row r="39" spans="1:9" ht="13" thickBot="1">
       <c r="A39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:9" ht="16">
       <c r="A40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="60">
+        <v>88</v>
+      </c>
+      <c r="B40" s="51">
         <v>1204</v>
       </c>
-      <c r="C40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>81</v>
+      <c r="C40" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+        <v>89</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" spans="1:9" ht="13" thickBot="1">
       <c r="A43" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="60">
+        <v>90</v>
+      </c>
+      <c r="B44" s="51">
         <v>990</v>
       </c>
-      <c r="C44" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>81</v>
+      <c r="C44" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
+        <v>91</v>
+      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
       <c r="A47" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="60">
+        <v>92</v>
+      </c>
+      <c r="B48" s="51">
         <v>975</v>
       </c>
-      <c r="C48" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>81</v>
+      <c r="C48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="1:9" ht="32.5" thickBot="1">
       <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+        <v>93</v>
+      </c>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="60">
+        <v>94</v>
+      </c>
+      <c r="B51" s="51">
         <v>210</v>
       </c>
-      <c r="C51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="60" t="s">
-        <v>81</v>
+      <c r="C51" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" spans="1:9" ht="32.5" thickBot="1">
       <c r="A53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
+        <v>60</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
     </row>
     <row r="54" spans="1:9" ht="16">
       <c r="A54" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="60">
+        <v>95</v>
+      </c>
+      <c r="B54" s="51">
         <v>966</v>
       </c>
-      <c r="C54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="60" t="s">
-        <v>81</v>
+      <c r="C54" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
     </row>
     <row r="56" spans="1:9" ht="16">
       <c r="A56" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
+        <v>96</v>
+      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
     </row>
     <row r="57" spans="1:9" ht="13" thickBot="1">
       <c r="A57" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="60">
+        <v>97</v>
+      </c>
+      <c r="B58" s="51">
         <v>1560</v>
       </c>
-      <c r="C58" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>81</v>
+      <c r="C58" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+    </row>
+    <row r="60" spans="1:9" ht="13" thickBot="1">
       <c r="A60" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="60">
+        <v>100</v>
+      </c>
+      <c r="B61" s="51">
         <v>900</v>
       </c>
-      <c r="C61" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="60" t="s">
-        <v>81</v>
+      <c r="C61" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" spans="1:9" ht="32.5" thickBot="1">
       <c r="A63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
+        <v>102</v>
+      </c>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="60">
+        <v>103</v>
+      </c>
+      <c r="B64" s="51">
         <v>1185</v>
       </c>
-      <c r="C64" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F64" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="60" t="s">
-        <v>81</v>
+      <c r="C64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" spans="1:9" ht="32.5" thickBot="1">
       <c r="A66" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
+        <v>102</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="60">
+        <v>104</v>
+      </c>
+      <c r="B67" s="51">
         <v>555</v>
       </c>
-      <c r="C67" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" s="60" t="s">
-        <v>81</v>
+      <c r="C67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" spans="1:9" ht="32.5" thickBot="1">
       <c r="A69" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+        <v>105</v>
+      </c>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
     </row>
     <row r="71" spans="1:9">
       <c r="B71">
@@ -7335,134 +7854,16 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7481,16 +7882,134 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7506,19 +8025,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -7574,7 +8082,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -7633,7 +8141,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -7652,7 +8160,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -7669,8 +8177,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -7759,6 +8267,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -7768,24 +8287,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1E48E7A-B339-479F-994E-0D1A712F1055}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C23B8FA-A33D-494E-83F3-4FFD6C6DEEB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7801,4 +8303,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
+++ b/SuppXLS/Scen_CAP_PP_LO_UP_RANGE_N-nowy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA192A49-4936-4F0F-90E1-CE579F5B7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF0356C-87D1-4CCE-9E86-996EF5D0492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="113">
   <si>
     <t> </t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>ELE_NEW_PV, ELE_EX_PV</t>
-  </si>
-  <si>
-    <t>NCAP_BND</t>
   </si>
   <si>
     <t>UC_RHSRTS</t>
@@ -4025,6 +4022,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4032,24 +4047,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5666,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D9493-8910-4400-8868-45B910E390AB}">
   <dimension ref="B1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5698,7 +5695,7 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.5">
       <c r="O1" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -5827,7 +5824,7 @@
         <v>10</v>
       </c>
       <c r="T4" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>11</v>
@@ -5893,7 +5890,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D6" s="26">
         <v>2030</v>
@@ -5921,7 +5918,7 @@
         <v>25</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6" s="41" t="s">
         <v>106</v>
@@ -5947,8 +5944,9 @@
       <c r="B7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>108</v>
+      <c r="C7" s="26" t="str">
+        <f>C6</f>
+        <v>CAP_BND</v>
       </c>
       <c r="D7" s="3">
         <v>2040</v>
@@ -5976,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P7" s="41" t="s">
         <v>106</v>
@@ -6002,8 +6000,9 @@
       <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>108</v>
+      <c r="C8" s="26" t="str">
+        <f>C7</f>
+        <v>CAP_BND</v>
       </c>
       <c r="D8" s="3">
         <v>2050</v>
@@ -6031,7 +6030,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P8" s="41" t="s">
         <v>106</v>
@@ -6057,8 +6056,9 @@
       <c r="B9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>108</v>
+      <c r="C9" s="26" t="str">
+        <f t="shared" ref="C9:C14" si="1">C8</f>
+        <v>CAP_BND</v>
       </c>
       <c r="D9" s="4">
         <v>2030</v>
@@ -6084,7 +6084,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="41" t="s">
         <v>106</v>
@@ -6110,8 +6110,9 @@
       <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>108</v>
+      <c r="C10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP_BND</v>
       </c>
       <c r="D10" s="4">
         <v>2040</v>
@@ -6137,7 +6138,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" s="41" t="s">
         <v>106</v>
@@ -6163,8 +6164,9 @@
       <c r="B11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>108</v>
+      <c r="C11" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP_BND</v>
       </c>
       <c r="D11" s="4">
         <v>2050</v>
@@ -6190,7 +6192,7 @@
         <v>28</v>
       </c>
       <c r="O11" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="41" t="s">
         <v>106</v>
@@ -6216,8 +6218,9 @@
       <c r="B12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>108</v>
+      <c r="C12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP_BND</v>
       </c>
       <c r="D12" s="3">
         <v>2030</v>
@@ -6247,7 +6250,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>107</v>
@@ -6273,8 +6276,9 @@
       <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>108</v>
+      <c r="C13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP_BND</v>
       </c>
       <c r="D13" s="3">
         <v>2040</v>
@@ -6304,7 +6308,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>107</v>
@@ -6329,8 +6333,9 @@
       <c r="B14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>108</v>
+      <c r="C14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP_BND</v>
       </c>
       <c r="D14" s="35">
         <v>2050</v>
@@ -6360,7 +6365,7 @@
         <v>30</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>107</v>
@@ -6383,7 +6388,7 @@
     </row>
     <row r="15" spans="2:25" ht="18.75" customHeight="1">
       <c r="O15" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>107</v>
@@ -6409,7 +6414,7 @@
         <v>33</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>107</v>
@@ -6435,7 +6440,7 @@
         <v>34</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>107</v>
@@ -6525,7 +6530,7 @@
         <v>5.6</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>26</v>
@@ -6540,7 +6545,7 @@
         <v>2</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="9:27" ht="18.75" customHeight="1">
@@ -6558,7 +6563,7 @@
         <v>7.3</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>26</v>
@@ -6571,7 +6576,7 @@
       </c>
       <c r="Z32" s="18"/>
       <c r="AA32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="16:27" ht="18.75" customHeight="1">
@@ -6588,7 +6593,7 @@
         <v>9</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>26</v>
@@ -6601,7 +6606,7 @@
       </c>
       <c r="Z33" s="18"/>
       <c r="AA33" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="16:27" ht="18.75" customHeight="1"/>
@@ -6664,10 +6669,10 @@
       <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="51" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -6682,7 +6687,7 @@
       <c r="H1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6691,21 +6696,21 @@
         <v>45</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="58"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="24.5" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
@@ -6718,7 +6723,7 @@
       <c r="H3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="13" thickBot="1">
       <c r="A4" s="54" t="s">
@@ -6737,173 +6742,173 @@
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="57">
         <v>1050</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" ht="32.5" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="57">
         <v>1500</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="32.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="57">
         <v>1200</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="57" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="12"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="13" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
@@ -6912,212 +6917,212 @@
       <c r="B15" s="14">
         <v>500</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="57">
         <v>440</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="57" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="57">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="57">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="13" thickBot="1">
       <c r="A27" s="54" t="s">
@@ -7136,715 +7141,715 @@
       <c r="A28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="57">
         <v>812</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="13" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="57">
         <v>896</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="12"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" ht="13" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" ht="16">
       <c r="A36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="57">
         <v>1204</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="13" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="16">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="57">
         <v>1204</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="51" t="s">
+      <c r="I40" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" ht="13" thickBot="1">
       <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="57">
         <v>990</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
       <c r="A47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="57">
         <v>975</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="51" t="s">
+      <c r="I48" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="1:9" ht="32.5" thickBot="1">
       <c r="A50" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="57">
         <v>210</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="1:9" ht="32.5" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="16">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="57">
         <v>966</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="51" t="s">
+      <c r="H54" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I54" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="1:9" ht="16">
       <c r="A56" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="1:9" ht="13" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="57">
         <v>1560</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="51" t="s">
+      <c r="H58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
     </row>
     <row r="60" spans="1:9" ht="13" thickBot="1">
       <c r="A60" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="51">
+      <c r="B61" s="57">
         <v>900</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="51" t="s">
+      <c r="G61" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="51" t="s">
+      <c r="H61" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
     </row>
     <row r="63" spans="1:9" ht="32.5" thickBot="1">
       <c r="A63" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="51">
+      <c r="B64" s="57">
         <v>1185</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="51" t="s">
+      <c r="F64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="51" t="s">
+      <c r="H64" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="51" t="s">
+      <c r="I64" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
     </row>
     <row r="66" spans="1:9" ht="32.5" thickBot="1">
       <c r="A66" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="57">
         <v>555</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="E67" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="51" t="s">
+      <c r="F67" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I67" s="51" t="s">
+      <c r="I67" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="69" spans="1:9" ht="32.5" thickBot="1">
       <c r="A69" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="71" spans="1:9">
       <c r="B71">
@@ -7854,16 +7859,134 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7882,134 +8005,16 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8025,6 +8030,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -8267,17 +8283,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -8287,6 +8292,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C23B8FA-A33D-494E-83F3-4FFD6C6DEEB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8303,15 +8319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>